--- a/数据/大屏移动端/大屏线稿/保险经纪_地图.xlsx
+++ b/数据/大屏移动端/大屏线稿/保险经纪_地图.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaming WANG\Desktop\TPFS\大屏草稿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaming WANG\Documents\GitHub\itaiping\数据\大屏移动端\大屏线稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC7176-58AC-4290-A7CE-8B48ADE73199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B3E2B1-44D1-48A3-B770-EA2B56E08DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF86E80F-21E9-4713-B443-55F12C3EDD0A}"/>
   </bookViews>
@@ -9667,19 +9667,19 @@
       </c>
       <c r="C3" s="4">
         <f ca="1">1000*RAND()</f>
-        <v>377.66645622809767</v>
+        <v>415.71175201541786</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:F18" ca="1" si="0">1000*RAND()</f>
-        <v>453.36217733180331</v>
+        <v>475.66741124694954</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>848.8324685856935</v>
+        <v>119.62941048340359</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>16.85349890000143</v>
+        <v>29.193420012782354</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -9688,19 +9688,19 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:F23" ca="1" si="1">1000*RAND()</f>
-        <v>592.38515707106615</v>
+        <v>668.39973683793914</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>539.45189390240887</v>
+        <v>162.3531913327586</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>478.48990980137097</v>
+        <v>780.78848149324438</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>54.618564184070742</v>
+        <v>981.9352671393367</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -9709,19 +9709,19 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>760.34198721151665</v>
+        <v>52.810768594371837</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2479897632429218</v>
+        <v>493.73093407268163</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>575.32123185297348</v>
+        <v>279.80714278274121</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>879.53242943185739</v>
+        <v>286.56745396972161</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -9730,19 +9730,19 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>207.48357426349051</v>
+        <v>469.2775280575251</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>15.518018009637924</v>
+        <v>670.55752473785219</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>156.26169309289219</v>
+        <v>370.15840420686129</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>786.13874703256431</v>
+        <v>460.31431796968116</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -9751,19 +9751,19 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>31.759582488820826</v>
+        <v>805.84958084408379</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>783.48220485091599</v>
+        <v>635.3732081710416</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>106.6627064310014</v>
+        <v>73.397247361626114</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>374.0399718024272</v>
+        <v>28.346355595492479</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -9772,19 +9772,19 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>50.264871195030537</v>
+        <v>425.82609849557161</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>393.00552280628841</v>
+        <v>940.16381119544178</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>783.74617276852234</v>
+        <v>154.64363184502372</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>63.743956620898821</v>
+        <v>336.8517200980292</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -9793,19 +9793,19 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>919.96704498026861</v>
+        <v>512.97330437478968</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>550.7219037696932</v>
+        <v>375.81286444401428</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>620.19016805362742</v>
+        <v>566.0100940496734</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>644.24957792590953</v>
+        <v>396.83233099941515</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -9814,19 +9814,19 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>117.19512655778198</v>
+        <v>53.343846311379565</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>478.85035561145105</v>
+        <v>967.83107952955766</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>187.62420171456372</v>
+        <v>404.35068548442644</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>567.51624972384002</v>
+        <v>964.69326660599643</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -9835,19 +9835,19 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>419.79574722616917</v>
+        <v>77.052558351884073</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>817.35581220242352</v>
+        <v>247.63554244028961</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>91.485724464592465</v>
+        <v>464.50297349603562</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>423.93550941330415</v>
+        <v>297.4436770269869</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -9856,19 +9856,19 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>984.7905470875528</v>
+        <v>49.095007640130191</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>174.03299888550461</v>
+        <v>779.91168882571208</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>644.43240121353051</v>
+        <v>777.85037358539387</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>101.02873002492497</v>
+        <v>378.78227627238306</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -9877,19 +9877,19 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>301.66551095374729</v>
+        <v>167.06251146333884</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>940.99044431846653</v>
+        <v>370.90222342148559</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>311.43049056464332</v>
+        <v>96.811457563441678</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>876.30080570499229</v>
+        <v>800.42975390009724</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -9898,19 +9898,19 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>407.78185320620543</v>
+        <v>527.4116147621487</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>601.86591936193679</v>
+        <v>173.27299995116408</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>963.21098466084663</v>
+        <v>543.65795849689789</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>521.50785007628633</v>
+        <v>545.3920835292821</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -9919,19 +9919,19 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>758.60367451555339</v>
+        <v>413.24326767290489</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>870.47364047209726</v>
+        <v>328.64981993746034</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>223.56518307950068</v>
+        <v>386.57366454827212</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>867.37935771609364</v>
+        <v>871.34142696692834</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1">
@@ -9940,19 +9940,19 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>682.16616155219435</v>
+        <v>335.59850324867136</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>463.15603818206307</v>
+        <v>5.558412898210241</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>983.72075082590027</v>
+        <v>396.69665276673879</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>935.66530717803471</v>
+        <v>976.15361585143137</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
@@ -9961,19 +9961,19 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>793.16711290599767</v>
+        <v>755.62495798183068</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>890.93818187740317</v>
+        <v>559.204892810101</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>597.9266254651144</v>
+        <v>175.56312147762964</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>267.42263648495992</v>
+        <v>137.47082625444085</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="8"/>
@@ -9987,19 +9987,19 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>836.95328948209669</v>
+        <v>41.180665601145307</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>454.19946093721484</v>
+        <v>126.77735859888296</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>862.15139610354424</v>
+        <v>516.57690900936802</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>574.21040985946934</v>
+        <v>565.6004972409097</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="4"/>
@@ -10013,19 +10013,19 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>449.78872825646823</v>
+        <v>478.28144499446404</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>887.28206815077215</v>
+        <v>555.16697720356535</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>234.37215105483688</v>
+        <v>801.93736876767116</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>978.42988617601952</v>
+        <v>42.537142403556437</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="4"/>
@@ -10039,19 +10039,19 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>358.68083924029713</v>
+        <v>749.49260528429238</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>833.15455667869162</v>
+        <v>25.749633136616048</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>902.98735214377098</v>
+        <v>966.90873873820544</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>105.87663694578431</v>
+        <v>846.59407500874238</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="4"/>
@@ -10065,19 +10065,19 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>730.19518525465071</v>
+        <v>617.06852224940371</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>703.49876349124804</v>
+        <v>404.02218950629185</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>230.91922236590534</v>
+        <v>605.40837855570976</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>662.32439128365513</v>
+        <v>226.67534461278328</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="4"/>
@@ -10091,19 +10091,19 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>737.82455564630391</v>
+        <v>516.4975538860914</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>345.38481657850338</v>
+        <v>729.02184732190608</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>60.630056984253279</v>
+        <v>295.3836121857417</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>934.72063866442181</v>
+        <v>894.47924190181607</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="4"/>
@@ -10117,19 +10117,19 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>453.49146179385059</v>
+        <v>759.8515900665692</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>484.07973550719538</v>
+        <v>93.777018393670247</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>622.70193233609768</v>
+        <v>699.64143007314874</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44.638341537758805</v>
+        <v>422.76777229632324</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="4"/>

--- a/数据/大屏移动端/大屏线稿/保险经纪_地图.xlsx
+++ b/数据/大屏移动端/大屏线稿/保险经纪_地图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaming WANG\Documents\GitHub\itaiping\数据\大屏移动端\大屏线稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B3E2B1-44D1-48A3-B770-EA2B56E08DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07854D-0EAD-4038-B4F2-18925B660210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF86E80F-21E9-4713-B443-55F12C3EDD0A}"/>
   </bookViews>
@@ -9127,7 +9127,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9667,19 +9667,19 @@
       </c>
       <c r="C3" s="4">
         <f ca="1">1000*RAND()</f>
-        <v>415.71175201541786</v>
+        <v>772.19801339430353</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:F18" ca="1" si="0">1000*RAND()</f>
-        <v>475.66741124694954</v>
+        <v>149.63562424908682</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>119.62941048340359</v>
+        <v>101.89473044895369</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>29.193420012782354</v>
+        <v>742.23892035139158</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -9688,19 +9688,19 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:F23" ca="1" si="1">1000*RAND()</f>
-        <v>668.39973683793914</v>
+        <v>158.44230447903917</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>162.3531913327586</v>
+        <v>968.22202789192659</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>780.78848149324438</v>
+        <v>660.22864966211125</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>981.9352671393367</v>
+        <v>801.95618772936973</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -9709,19 +9709,19 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>52.810768594371837</v>
+        <v>55.538994784588013</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>493.73093407268163</v>
+        <v>651.01132462866997</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>279.80714278274121</v>
+        <v>499.22180032395789</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>286.56745396972161</v>
+        <v>621.96018098011848</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -9730,19 +9730,19 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>469.2775280575251</v>
+        <v>455.2834128555038</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>670.55752473785219</v>
+        <v>820.13004809954487</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>370.15840420686129</v>
+        <v>614.15943623305827</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>460.31431796968116</v>
+        <v>283.00084851747999</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -9751,19 +9751,19 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>805.84958084408379</v>
+        <v>19.899497633631078</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>635.3732081710416</v>
+        <v>171.88137911230496</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>73.397247361626114</v>
+        <v>372.31038259749351</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>28.346355595492479</v>
+        <v>697.61721301442765</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -9772,19 +9772,19 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>425.82609849557161</v>
+        <v>412.21735898289313</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>940.16381119544178</v>
+        <v>53.631755762014954</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>154.64363184502372</v>
+        <v>913.08958732858753</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>336.8517200980292</v>
+        <v>195.21690510544389</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -9793,19 +9793,19 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>512.97330437478968</v>
+        <v>895.59549278699546</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>375.81286444401428</v>
+        <v>585.16945586223926</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.0100940496734</v>
+        <v>584.19749481391352</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>396.83233099941515</v>
+        <v>289.03306766338233</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -9814,19 +9814,19 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>53.343846311379565</v>
+        <v>115.98008839096141</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>967.83107952955766</v>
+        <v>398.03551139247395</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>404.35068548442644</v>
+        <v>893.70357798022042</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>964.69326660599643</v>
+        <v>840.80510735814096</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -9835,19 +9835,19 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>77.052558351884073</v>
+        <v>958.3178699145775</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>247.63554244028961</v>
+        <v>571.5456945820024</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>464.50297349603562</v>
+        <v>89.58355510360272</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>297.4436770269869</v>
+        <v>614.07521507387594</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -9856,19 +9856,19 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>49.095007640130191</v>
+        <v>783.32948801124508</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>779.91168882571208</v>
+        <v>769.64306158272063</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>777.85037358539387</v>
+        <v>847.55600031758524</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>378.78227627238306</v>
+        <v>966.01950473813747</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -9877,19 +9877,19 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>167.06251146333884</v>
+        <v>129.08521057860966</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>370.90222342148559</v>
+        <v>1.1505795657139606</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>96.811457563441678</v>
+        <v>242.79290419200981</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>800.42975390009724</v>
+        <v>649.53462318098673</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -9898,19 +9898,19 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>527.4116147621487</v>
+        <v>175.33291415678497</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>173.27299995116408</v>
+        <v>864.38841522300299</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>543.65795849689789</v>
+        <v>556.34271251255677</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.3920835292821</v>
+        <v>423.5245210998674</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -9919,19 +9919,19 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>413.24326767290489</v>
+        <v>781.57327712522658</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>328.64981993746034</v>
+        <v>289.06248939171888</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>386.57366454827212</v>
+        <v>900.92036811630794</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>871.34142696692834</v>
+        <v>776.94023084494415</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" thickBot="1">
@@ -9940,19 +9940,19 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>335.59850324867136</v>
+        <v>38.966087510748373</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.558412898210241</v>
+        <v>779.94394983084987</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>396.69665276673879</v>
+        <v>988.50220488975538</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>976.15361585143137</v>
+        <v>924.24039120841519</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
@@ -9961,19 +9961,19 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>755.62495798183068</v>
+        <v>131.6962411187308</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>559.204892810101</v>
+        <v>722.14792023352709</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>175.56312147762964</v>
+        <v>564.33286775644797</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>137.47082625444085</v>
+        <v>266.32070851433178</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="8"/>
@@ -9987,19 +9987,19 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>41.180665601145307</v>
+        <v>682.05959347365717</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>126.77735859888296</v>
+        <v>499.48341425267893</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>516.57690900936802</v>
+        <v>120.90837939767185</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.6004972409097</v>
+        <v>492.56280867398129</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="4"/>
@@ -10013,19 +10013,19 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>478.28144499446404</v>
+        <v>665.17519342170726</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>555.16697720356535</v>
+        <v>791.59647999425408</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>801.93736876767116</v>
+        <v>558.06045106502086</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>42.537142403556437</v>
+        <v>741.95851977803613</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="4"/>
@@ -10039,19 +10039,19 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>749.49260528429238</v>
+        <v>699.50755494961675</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>25.749633136616048</v>
+        <v>107.02779230997817</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>966.90873873820544</v>
+        <v>772.96367817873841</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>846.59407500874238</v>
+        <v>705.70183094081119</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="4"/>
@@ -10065,19 +10065,19 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>617.06852224940371</v>
+        <v>521.06426091905746</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>404.02218950629185</v>
+        <v>182.85507953681744</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>605.40837855570976</v>
+        <v>804.87000969011842</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>226.67534461278328</v>
+        <v>963.09749893451817</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="4"/>
@@ -10091,19 +10091,19 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>516.4975538860914</v>
+        <v>16.0228861691023</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>729.02184732190608</v>
+        <v>356.54956877246946</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>295.3836121857417</v>
+        <v>486.25585329395813</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>894.47924190181607</v>
+        <v>740.58477293180715</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="4"/>
@@ -10117,19 +10117,19 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>759.8515900665692</v>
+        <v>28.6139980544724</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>93.777018393670247</v>
+        <v>371.50766904381982</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>699.64143007314874</v>
+        <v>799.09251354631908</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>422.76777229632324</v>
+        <v>455.99845291162154</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="4"/>
